--- a/medicine/Handicap/Kerryann_Ifill/Kerryann_Ifill.xlsx
+++ b/medicine/Handicap/Kerryann_Ifill/Kerryann_Ifill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kerryann F. Ifill est une femme politique barbadienne, née le 20 décembre 1973[1]. Membre du Parti travailliste démocrate, elle est présidente du Sénat de 2012 à 2018.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerryann F. Ifill est une femme politique barbadienne, née le 20 décembre 1973. Membre du Parti travailliste démocrate, elle est présidente du Sénat de 2012 à 2018.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aveugle depuis l'âge de 4 ans à cause d'une cataracte, Kerryann Ifill fréquente une école adaptée à partir de ses 6 ans[2].
-En 1999, Kerryann Ifill devient la première personne aveugle à être diplômée de l'université des Indes occidentales, en sociologie et psychologie sur le campus Cave Hill de Saint Michael. Elle obtient ensuite un MBA à l'école de commerce de l'université de Durham, en Angleterre[1]. Elle a d'abord voulu devenir avocate mais a abandonné cet objectif à cause de sa cécité, ce qu'elle a ultérieurement regretté[2].
-En 2008, le Premier ministre barbadien David Thompson la nomme au Sénat[2]. En mars 2012, le successeur de Thompson, Freundel Stuart, annonce la nomination de Kerryann Ifill comme présidente du Sénat. À cette fonction, elle est à la fois la première femme, la première personne handicapée et la plus jeune de l'histoire du pays à l'âge de 38 ans[3],[4],[5].
-Kerryann Ifill assure aussi la présidence du conseil de la Barbade pour le handicap[6]. Depuis 2010, elle est consultante sur les droits des personnes handicapées[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aveugle depuis l'âge de 4 ans à cause d'une cataracte, Kerryann Ifill fréquente une école adaptée à partir de ses 6 ans.
+En 1999, Kerryann Ifill devient la première personne aveugle à être diplômée de l'université des Indes occidentales, en sociologie et psychologie sur le campus Cave Hill de Saint Michael. Elle obtient ensuite un MBA à l'école de commerce de l'université de Durham, en Angleterre. Elle a d'abord voulu devenir avocate mais a abandonné cet objectif à cause de sa cécité, ce qu'elle a ultérieurement regretté.
+En 2008, le Premier ministre barbadien David Thompson la nomme au Sénat. En mars 2012, le successeur de Thompson, Freundel Stuart, annonce la nomination de Kerryann Ifill comme présidente du Sénat. À cette fonction, elle est à la fois la première femme, la première personne handicapée et la plus jeune de l'histoire du pays à l'âge de 38 ans.
+Kerryann Ifill assure aussi la présidence du conseil de la Barbade pour le handicap. Depuis 2010, elle est consultante sur les droits des personnes handicapées.
 </t>
         </is>
       </c>
